--- a/자동차/2015.올란도/쉐보레.올란도.정비이력.xlsx
+++ b/자동차/2015.올란도/쉐보레.올란도.정비이력.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5501B263-B222-4BBA-AE79-A2F4E77D1958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C503D23-A811-44C2-ACBC-DD0133989A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,21 +13,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
   <si>
     <t>정비업체</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,10 +92,6 @@
   </si>
   <si>
     <t>알리표 스마트키 3개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이모빌라이져리프로그램</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -298,10 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구매전 예방정비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한국지엠서인천서비스센터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,6 +309,103 @@
   </si>
   <si>
     <t>2022-12-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-06-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??????</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매시 예방정비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이모빌라이처리프로그램</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알리익스프레스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마트키 3개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>????-??-??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토크컨버터 교체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-06-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보쉬 N 2062. 품번 : 13263262</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덱스쿨. 적색. 품번 : P93746925</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부동액(보충용) 구입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉐보레스토어. 제품 12,000 + 택배비 3,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPMS 센서. 433MHZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">신형: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13522629</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브레이크 패드(뒤) 재작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPMS 센서 구입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품번 : 13598773. 삼각형 그림. 주파수 433Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13522629(신형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉐보레몰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -337,7 +416,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,8 +440,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,8 +468,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -405,48 +498,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -467,21 +523,12 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,41 +544,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,9 +595,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -591,9 +635,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -626,26 +670,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -678,26 +705,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -871,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -914,399 +924,516 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="10">
+        <v>228000</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="13">
+      <c r="D2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13">
+        <v>5500000</v>
+      </c>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="10">
         <v>228000</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="C3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="10">
+        <v>228000</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16">
-        <v>5500000</v>
-      </c>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="13">
-        <v>228000</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="13">
-        <v>228000</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="13">
         <v>781751</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>67</v>
+      <c r="G4" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2">
         <v>228000</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="6">
+        <v>15365</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="B6" s="2">
+        <v>228000</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6">
+        <v>38060</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="6">
-        <v>38060</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="23">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="20">
         <v>227933</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F7" s="6">
         <v>61400</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="5" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F8" s="6">
         <v>59000</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2">
-        <v>229427</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="6">
-        <v>111560</v>
       </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>229427</v>
+      </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F9" s="6">
-        <v>33500</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>33</v>
-      </c>
+        <v>111560</v>
+      </c>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6">
-        <v>22660</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>24</v>
+        <v>33500</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="9">
-        <v>233993</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5"/>
       <c r="F11" s="6">
-        <v>23000</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>22660</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2">
+        <v>233993</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="6">
+        <v>23000</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6">
+        <v>34800</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6">
-        <v>34800</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="D14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="5" t="s">
+      <c r="F14" s="15">
+        <v>141800</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="29">
-        <v>141800</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="9">
-        <v>234031</v>
-      </c>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="9">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2">
         <v>234031</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="F17" s="6">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="2">
+        <v>234031</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="6">
+        <v>50000</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="2">
+        <v>234035</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="9">
-        <v>234035</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="C20" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18">
+        <v>800000</v>
+      </c>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2">
+        <v>248370</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F22" s="1"/>
+      <c r="A22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="2">
+        <v>248370</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F23" s="1"/>
+      <c r="A23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6">
+        <v>15500</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C24" s="17" t="s">
-        <v>73</v>
+      <c r="A24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
